--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roman\proga\python\DuoCards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A40511-70F2-4E53-9589-2BEA6FBD7A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9DA318-3069-4879-ADEE-0A6472290EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -353,12 +353,12 @@
   <dimension ref="A1:G1105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,7 +372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44986</v>
       </c>
@@ -386,7 +386,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44987</v>
       </c>
@@ -400,7 +400,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44988</v>
       </c>
@@ -413,8 +413,17 @@
       <c r="D4">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>2000</v>
+      </c>
+      <c r="F4">
+        <v>141</v>
+      </c>
+      <c r="G4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44989</v>
       </c>
@@ -428,7 +437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44990</v>
       </c>
@@ -442,7 +451,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44991</v>
       </c>
@@ -456,7 +465,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44992</v>
       </c>
@@ -470,7 +479,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44993</v>
       </c>
@@ -483,8 +492,14 @@
       <c r="D9">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2222</v>
+      </c>
+      <c r="F9">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44994</v>
       </c>
@@ -498,7 +513,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44995</v>
       </c>
@@ -512,7 +527,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44996</v>
       </c>
@@ -526,7 +541,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44997</v>
       </c>
@@ -540,7 +555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44998</v>
       </c>
@@ -554,7 +569,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44999</v>
       </c>
@@ -568,7 +583,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45000</v>
       </c>
@@ -923,19 +938,43 @@
       <c r="A40" s="1">
         <v>45024</v>
       </c>
+      <c r="B40">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <v>617</v>
+      </c>
+      <c r="D40">
+        <v>115</v>
+      </c>
       <c r="E40">
-        <v>3553</v>
+        <v>3576</v>
       </c>
       <c r="F40">
-        <v>247</v>
-      </c>
-      <c r="G40">
-        <v>13</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45025</v>
+      </c>
+      <c r="B41">
+        <v>66</v>
+      </c>
+      <c r="C41">
+        <v>542</v>
+      </c>
+      <c r="D41">
+        <v>99</v>
+      </c>
+      <c r="E41">
+        <v>3633</v>
+      </c>
+      <c r="F41">
+        <v>255</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roman\proga\python\DuoCards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9DA318-3069-4879-ADEE-0A6472290EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED8912-C3C4-4BAB-92E5-56F474273B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -353,7 +353,7 @@
   <dimension ref="A1:G1105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,6 +981,21 @@
       <c r="A42" s="1">
         <v>45026</v>
       </c>
+      <c r="B42">
+        <v>60</v>
+      </c>
+      <c r="C42">
+        <v>584</v>
+      </c>
+      <c r="D42">
+        <v>131</v>
+      </c>
+      <c r="E42">
+        <v>3680</v>
+      </c>
+      <c r="F42">
+        <v>265</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roman\proga\python\DuoCards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED8912-C3C4-4BAB-92E5-56F474273B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C609C59B-AD78-43FA-AA14-B564D02CBAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>data</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>fire</t>
+  </si>
+  <si>
+    <t>ФІКЦІЯ, ДОДАНО ШТУЧНО, НЕ Є РЕАЬНИМИ ДАНИМИ</t>
   </si>
 </sst>
 </file>
@@ -67,9 +70,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -350,15 +356,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1105"/>
+  <dimension ref="A1:H1105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="U105" sqref="U105:U106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,7 +378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44986</v>
       </c>
@@ -386,7 +392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44987</v>
       </c>
@@ -400,7 +406,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44988</v>
       </c>
@@ -423,7 +429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44989</v>
       </c>
@@ -437,7 +443,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44990</v>
       </c>
@@ -451,7 +457,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44991</v>
       </c>
@@ -465,7 +471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44992</v>
       </c>
@@ -479,7 +485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44993</v>
       </c>
@@ -499,7 +505,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44994</v>
       </c>
@@ -512,8 +518,11 @@
       <c r="D10">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44995</v>
       </c>
@@ -526,8 +535,14 @@
       <c r="D11">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>2456</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44996</v>
       </c>
@@ -540,8 +555,12 @@
       <c r="D12">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>2495</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44997</v>
       </c>
@@ -554,8 +573,12 @@
       <c r="D13">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>2507</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44998</v>
       </c>
@@ -568,8 +591,12 @@
       <c r="D14">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>2583</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44999</v>
       </c>
@@ -582,8 +609,12 @@
       <c r="D15">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>2625</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45000</v>
       </c>
@@ -596,8 +627,12 @@
       <c r="D16">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>2653</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45001</v>
       </c>
@@ -610,8 +645,12 @@
       <c r="D17">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>2702</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45002</v>
       </c>
@@ -624,8 +663,12 @@
       <c r="D18">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>2777</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45003</v>
       </c>
@@ -638,8 +681,12 @@
       <c r="D19">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>2815</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45004</v>
       </c>
@@ -652,8 +699,12 @@
       <c r="D20">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>2843</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45005</v>
       </c>
@@ -666,8 +717,12 @@
       <c r="D21">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>2877</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45006</v>
       </c>
@@ -680,8 +735,12 @@
       <c r="D22">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>2954</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45007</v>
       </c>
@@ -694,8 +753,12 @@
       <c r="D23">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>2990</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45008</v>
       </c>
@@ -708,8 +771,12 @@
       <c r="D24">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>3072</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45009</v>
       </c>
@@ -722,8 +789,12 @@
       <c r="D25">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>3120</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45010</v>
       </c>
@@ -736,8 +807,9 @@
       <c r="D26">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45011</v>
       </c>
@@ -751,7 +823,7 @@
         <v>36</v>
       </c>
       <c r="E27">
-        <v>3000</v>
+        <v>3006</v>
       </c>
       <c r="F27">
         <v>132</v>
@@ -760,7 +832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45012</v>
       </c>
@@ -773,8 +845,14 @@
       <c r="D28">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>3232</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45013</v>
       </c>
@@ -787,8 +865,12 @@
       <c r="D29">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>3274</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45014</v>
       </c>
@@ -801,8 +883,12 @@
       <c r="D30">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>3314</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45015</v>
       </c>
@@ -815,8 +901,12 @@
       <c r="D31">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>3361</v>
+      </c>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45016</v>
       </c>
@@ -829,8 +919,12 @@
       <c r="D32">
         <v>145</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>3446</v>
+      </c>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45017</v>
       </c>
@@ -843,8 +937,12 @@
       <c r="D33">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>3479</v>
+      </c>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45018</v>
       </c>
@@ -857,8 +955,12 @@
       <c r="D34">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>3502</v>
+      </c>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45019</v>
       </c>
@@ -871,8 +973,12 @@
       <c r="D35">
         <v>87</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>3552</v>
+      </c>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45020</v>
       </c>
@@ -885,8 +991,12 @@
       <c r="D36">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>3602</v>
+      </c>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45021</v>
       </c>
@@ -899,8 +1009,12 @@
       <c r="D37">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>3634</v>
+      </c>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45022</v>
       </c>
@@ -913,8 +1027,9 @@
       <c r="D38">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45023</v>
       </c>
@@ -934,7 +1049,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45024</v>
       </c>
@@ -954,7 +1069,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45025</v>
       </c>
@@ -977,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45026</v>
       </c>
@@ -997,352 +1112,1288 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45027</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>69</v>
+      </c>
+      <c r="C43">
+        <v>515</v>
+      </c>
+      <c r="D43">
+        <v>123</v>
+      </c>
+      <c r="E43">
+        <v>3763</v>
+      </c>
+      <c r="F43">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45028</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>634</v>
+      </c>
+      <c r="D44">
+        <v>203</v>
+      </c>
+      <c r="E44">
+        <v>3826</v>
+      </c>
+      <c r="F44">
+        <v>187</v>
+      </c>
+      <c r="G44">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45029</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>343</v>
+      </c>
+      <c r="D45">
+        <v>68</v>
+      </c>
+      <c r="E45">
+        <v>3859</v>
+      </c>
+      <c r="F45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45030</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>412</v>
+      </c>
+      <c r="D46">
+        <v>72</v>
+      </c>
+      <c r="E46">
+        <v>3864</v>
+      </c>
+      <c r="F46">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>147</v>
+      </c>
+      <c r="D47">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45032</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>32</v>
+      </c>
+      <c r="C48">
+        <v>234</v>
+      </c>
+      <c r="D48">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45033</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>415</v>
+      </c>
+      <c r="D49">
+        <v>70</v>
+      </c>
+      <c r="E49">
+        <v>3978</v>
+      </c>
+      <c r="F49">
+        <v>130</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45034</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>232</v>
+      </c>
+      <c r="D50">
+        <v>36</v>
+      </c>
+      <c r="E50">
+        <v>3987</v>
+      </c>
+      <c r="F50">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45035</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>309</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>4033</v>
+      </c>
+      <c r="F51">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45036</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>473</v>
+      </c>
+      <c r="D52">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45037</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>35</v>
+      </c>
+      <c r="C53">
+        <v>431</v>
+      </c>
+      <c r="D53">
+        <v>85</v>
+      </c>
+      <c r="E53">
+        <v>4039</v>
+      </c>
+      <c r="F53">
+        <v>189</v>
+      </c>
+      <c r="G53">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45038</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>394</v>
+      </c>
+      <c r="D54">
+        <v>62</v>
+      </c>
+      <c r="E54">
+        <v>4080</v>
+      </c>
+      <c r="F54">
+        <v>187</v>
+      </c>
+      <c r="G54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45039</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>42</v>
+      </c>
+      <c r="C55">
+        <v>434</v>
+      </c>
+      <c r="D55">
+        <v>76</v>
+      </c>
+      <c r="E55">
+        <v>4118</v>
+      </c>
+      <c r="F55">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45040</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>22</v>
+      </c>
+      <c r="C56">
+        <v>294</v>
+      </c>
+      <c r="D56">
+        <v>47</v>
+      </c>
+      <c r="E56">
+        <v>4135</v>
+      </c>
+      <c r="F56">
+        <v>140</v>
+      </c>
+      <c r="G56">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45041</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>383</v>
+      </c>
+      <c r="D57">
+        <v>61</v>
+      </c>
+      <c r="E57">
+        <v>4183</v>
+      </c>
+      <c r="F57">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45042</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>228</v>
+      </c>
+      <c r="D58">
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <v>4205</v>
+      </c>
+      <c r="F58">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45043</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>242</v>
+      </c>
+      <c r="D59">
+        <v>32</v>
+      </c>
+      <c r="E59">
+        <v>4260</v>
+      </c>
+      <c r="F59">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45044</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>35</v>
+      </c>
+      <c r="C60">
+        <v>351</v>
+      </c>
+      <c r="D60">
+        <v>53</v>
+      </c>
+      <c r="E60">
+        <v>4282</v>
+      </c>
+      <c r="F60">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45045</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>228</v>
+      </c>
+      <c r="D61">
+        <v>37</v>
+      </c>
+      <c r="E61">
+        <v>4277</v>
+      </c>
+      <c r="F61">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45046</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>219</v>
+      </c>
+      <c r="D62">
+        <v>35</v>
+      </c>
+      <c r="E62">
+        <v>4282</v>
+      </c>
+      <c r="F62">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45047</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>210</v>
+      </c>
+      <c r="D63">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45048</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>37</v>
+      </c>
+      <c r="C64">
+        <v>279</v>
+      </c>
+      <c r="D64">
+        <v>42</v>
+      </c>
+      <c r="E64">
+        <v>4298</v>
+      </c>
+      <c r="F64">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45049</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>462</v>
+      </c>
+      <c r="D65">
+        <v>67</v>
+      </c>
+      <c r="E65">
+        <v>4308</v>
+      </c>
+      <c r="F65">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45050</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>21</v>
+      </c>
+      <c r="C66">
+        <v>349</v>
+      </c>
+      <c r="D66">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45051</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>227</v>
+      </c>
+      <c r="D67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45052</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>188</v>
+      </c>
+      <c r="D68">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45053</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>309</v>
+      </c>
+      <c r="D69">
+        <v>44</v>
+      </c>
+      <c r="E69">
+        <v>4419</v>
+      </c>
+      <c r="F69">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45054</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>181</v>
+      </c>
+      <c r="D70">
+        <v>23</v>
+      </c>
+      <c r="E70">
+        <v>4405</v>
+      </c>
+      <c r="F70">
+        <v>140</v>
+      </c>
+      <c r="G70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45055</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>37</v>
+      </c>
+      <c r="C71">
+        <v>372</v>
+      </c>
+      <c r="D71">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45056</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>267</v>
+      </c>
+      <c r="D72">
+        <v>36</v>
+      </c>
+      <c r="E72">
+        <v>4450</v>
+      </c>
+      <c r="F72">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45057</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>107</v>
+      </c>
+      <c r="C73">
+        <v>584</v>
+      </c>
+      <c r="D73">
+        <v>107</v>
+      </c>
+      <c r="E73">
+        <v>4454</v>
+      </c>
+      <c r="F73">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45058</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>404</v>
+      </c>
+      <c r="D74">
+        <v>65</v>
+      </c>
+      <c r="E74">
+        <v>4492</v>
+      </c>
+      <c r="F74">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45059</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>62</v>
+      </c>
+      <c r="C75">
+        <v>386</v>
+      </c>
+      <c r="D75">
+        <v>67</v>
+      </c>
+      <c r="E75">
+        <v>4516</v>
+      </c>
+      <c r="F75">
+        <v>231</v>
+      </c>
+      <c r="G75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45060</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>552</v>
+      </c>
+      <c r="D76">
+        <v>95</v>
+      </c>
+      <c r="E76">
+        <v>4598</v>
+      </c>
+      <c r="F76">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45061</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>24</v>
+      </c>
+      <c r="C77">
+        <v>403</v>
+      </c>
+      <c r="D77">
+        <v>79</v>
+      </c>
+      <c r="E77">
+        <v>4661</v>
+      </c>
+      <c r="F77">
+        <v>193</v>
+      </c>
+      <c r="G77">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45062</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>30</v>
+      </c>
+      <c r="C78">
+        <v>351</v>
+      </c>
+      <c r="D78">
+        <v>59</v>
+      </c>
+      <c r="E78">
+        <v>4690</v>
+      </c>
+      <c r="F78">
+        <v>153</v>
+      </c>
+      <c r="G78">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>344</v>
+      </c>
+      <c r="D79">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45064</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>56</v>
+      </c>
+      <c r="C80">
+        <v>465</v>
+      </c>
+      <c r="D80">
+        <v>99</v>
+      </c>
+      <c r="E80">
+        <v>4755</v>
+      </c>
+      <c r="F80">
+        <v>162</v>
+      </c>
+      <c r="G80">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45065</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>24</v>
+      </c>
+      <c r="C81">
+        <v>340</v>
+      </c>
+      <c r="D81">
+        <v>61</v>
+      </c>
+      <c r="E81">
+        <v>4788</v>
+      </c>
+      <c r="F81">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45066</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>39</v>
+      </c>
+      <c r="C82">
+        <v>367</v>
+      </c>
+      <c r="D82">
+        <v>65</v>
+      </c>
+      <c r="E82">
+        <v>4816</v>
+      </c>
+      <c r="F82">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45067</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>294</v>
+      </c>
+      <c r="D83">
+        <v>50</v>
+      </c>
+      <c r="E83">
+        <v>4863</v>
+      </c>
+      <c r="F83">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45068</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>27</v>
+      </c>
+      <c r="C84">
+        <v>331</v>
+      </c>
+      <c r="D84">
+        <v>66</v>
+      </c>
+      <c r="E84">
+        <v>4873</v>
+      </c>
+      <c r="F84">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45069</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>206</v>
+      </c>
+      <c r="D85">
+        <v>30</v>
+      </c>
+      <c r="E85">
+        <v>4865</v>
+      </c>
+      <c r="F85">
+        <v>135</v>
+      </c>
+      <c r="G85">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45070</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>24</v>
+      </c>
+      <c r="C86">
+        <v>301</v>
+      </c>
+      <c r="D86">
+        <v>56</v>
+      </c>
+      <c r="E86">
+        <v>4903</v>
+      </c>
+      <c r="F86">
+        <v>94</v>
+      </c>
+      <c r="G86">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45071</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>16</v>
+      </c>
+      <c r="C87">
+        <v>213</v>
+      </c>
+      <c r="D87">
+        <v>32</v>
+      </c>
+      <c r="E87">
+        <v>4906</v>
+      </c>
+      <c r="F87">
+        <v>98</v>
+      </c>
+      <c r="G87">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45072</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>28</v>
+      </c>
+      <c r="C88">
+        <v>326</v>
+      </c>
+      <c r="D88">
+        <v>56</v>
+      </c>
+      <c r="E88">
+        <v>4930</v>
+      </c>
+      <c r="F88">
+        <v>112</v>
+      </c>
+      <c r="G88">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45073</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>186</v>
+      </c>
+      <c r="D89">
+        <v>30</v>
+      </c>
+      <c r="E89">
+        <v>4920</v>
+      </c>
+      <c r="F89">
+        <v>130</v>
+      </c>
+      <c r="G89">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45074</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>256</v>
+      </c>
+      <c r="D90">
+        <v>38</v>
+      </c>
+      <c r="E90">
+        <v>4919</v>
+      </c>
+      <c r="F90">
+        <v>80</v>
+      </c>
+      <c r="G90">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45075</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>69</v>
+      </c>
+      <c r="C91">
+        <v>387</v>
+      </c>
+      <c r="D91">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45076</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>416</v>
+      </c>
+      <c r="D92">
+        <v>71</v>
+      </c>
+      <c r="E92">
+        <v>4997</v>
+      </c>
+      <c r="F92">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45077</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>31</v>
+      </c>
+      <c r="C93">
+        <v>341</v>
+      </c>
+      <c r="D93">
+        <v>53</v>
+      </c>
+      <c r="E93">
+        <v>5014</v>
+      </c>
+      <c r="F93">
+        <v>141</v>
+      </c>
+      <c r="G93">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45078</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>39</v>
+      </c>
+      <c r="C94">
+        <v>470</v>
+      </c>
+      <c r="D94">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <v>5056</v>
+      </c>
+      <c r="F94">
+        <v>143</v>
+      </c>
+      <c r="G94">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45079</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>24</v>
+      </c>
+      <c r="C95">
+        <v>318</v>
+      </c>
+      <c r="D95">
+        <v>68</v>
+      </c>
+      <c r="E95">
+        <v>5087</v>
+      </c>
+      <c r="F95">
+        <v>174</v>
+      </c>
+      <c r="G95">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45080</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>332</v>
+      </c>
+      <c r="D96">
+        <v>53</v>
+      </c>
+      <c r="E96">
+        <v>5113</v>
+      </c>
+      <c r="F96">
+        <v>139</v>
+      </c>
+      <c r="G96">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45081</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>219</v>
+      </c>
+      <c r="D97">
+        <v>34</v>
+      </c>
+      <c r="E97">
+        <v>5117</v>
+      </c>
+      <c r="F97">
+        <v>117</v>
+      </c>
+      <c r="G97">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45082</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>280</v>
+      </c>
+      <c r="D98">
+        <v>46</v>
+      </c>
+      <c r="E98">
+        <v>5173</v>
+      </c>
+      <c r="F98">
+        <v>92</v>
+      </c>
+      <c r="G98">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45083</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>186</v>
+      </c>
+      <c r="D99">
+        <v>37</v>
+      </c>
+      <c r="E99">
+        <v>5172</v>
+      </c>
+      <c r="F99">
+        <v>115</v>
+      </c>
+      <c r="G99">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45084</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>23</v>
+      </c>
+      <c r="C100">
+        <v>240</v>
+      </c>
+      <c r="D100">
+        <v>44</v>
+      </c>
+      <c r="E100">
+        <v>5160</v>
+      </c>
+      <c r="F100">
+        <v>96</v>
+      </c>
+      <c r="G100">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45085</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>196</v>
+      </c>
+      <c r="D101">
+        <v>30</v>
+      </c>
+      <c r="E101">
+        <v>5159</v>
+      </c>
+      <c r="F101">
+        <v>75</v>
+      </c>
+      <c r="G101">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45086</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>141</v>
+      </c>
+      <c r="D102">
+        <v>21</v>
+      </c>
+      <c r="E102">
+        <v>5125</v>
+      </c>
+      <c r="F102">
+        <v>89</v>
+      </c>
+      <c r="G102">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45087</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>218</v>
+      </c>
+      <c r="D103">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45088</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>270</v>
+      </c>
+      <c r="D104">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45089</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45090</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45091</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45092</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45093</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45094</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45095</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45096</v>
       </c>
@@ -6313,6 +7364,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H11:H26"/>
+    <mergeCell ref="H28:H38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roman\proga\python\DuoCards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A7D7D5-1E8C-4C0E-AA79-1DD0A6E83BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4203C0-F0F0-48A4-8803-76074D71134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="english" sheetId="1" r:id="rId1"/>
+    <sheet name="deutsch" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>data</t>
   </si>
@@ -35,6 +36,9 @@
   </si>
   <si>
     <t>ФІКЦІЯ, ДОДАНО ШТУЧНО, НЕ Є РЕАЬНИМИ ДАНИМИ</t>
+  </si>
+  <si>
+    <t>тут я почав додавати німецькі слова</t>
   </si>
 </sst>
 </file>
@@ -356,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10000"/>
+  <dimension ref="A1:M10000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="R170" sqref="R170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,253 +2807,1009 @@
       <c r="A126" s="1">
         <v>45110</v>
       </c>
+      <c r="B126">
+        <v>26</v>
+      </c>
+      <c r="C126">
+        <v>289</v>
+      </c>
+      <c r="D126">
+        <v>49</v>
+      </c>
+      <c r="E126">
+        <v>5505</v>
+      </c>
+      <c r="F126">
+        <v>41</v>
+      </c>
+      <c r="G126">
+        <v>125</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45111</v>
       </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>243</v>
+      </c>
+      <c r="D127">
+        <v>35</v>
+      </c>
+      <c r="E127">
+        <v>5514</v>
+      </c>
+      <c r="F127">
+        <v>76</v>
+      </c>
+      <c r="G127">
+        <v>83</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45112</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>31</v>
+      </c>
+      <c r="C128">
+        <v>297</v>
+      </c>
+      <c r="D128">
+        <v>45</v>
+      </c>
+      <c r="E128">
+        <v>5540</v>
+      </c>
+      <c r="F128">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45113</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>10</v>
+      </c>
+      <c r="C129">
+        <v>146</v>
+      </c>
+      <c r="D129">
+        <v>24</v>
+      </c>
+      <c r="E129">
+        <v>5542</v>
+      </c>
+      <c r="F129">
+        <v>84</v>
+      </c>
+      <c r="G129">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45114</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <v>230</v>
+      </c>
+      <c r="D130">
+        <v>30</v>
+      </c>
+      <c r="E130">
+        <v>5529</v>
+      </c>
+      <c r="F130">
+        <v>37</v>
+      </c>
+      <c r="G130">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45115</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>218</v>
+      </c>
+      <c r="D131">
+        <v>32</v>
+      </c>
+      <c r="E131">
+        <v>5565</v>
+      </c>
+      <c r="F131">
+        <v>80</v>
+      </c>
+      <c r="G131">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45116</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>210</v>
+      </c>
+      <c r="D132">
+        <v>33</v>
+      </c>
+      <c r="E132">
+        <v>5562</v>
+      </c>
+      <c r="F132">
+        <v>88</v>
+      </c>
+      <c r="G132">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45117</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>18</v>
+      </c>
+      <c r="C133">
+        <v>292</v>
+      </c>
+      <c r="D133">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45118</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>12</v>
+      </c>
+      <c r="C134">
+        <v>228</v>
+      </c>
+      <c r="D134">
+        <v>36</v>
+      </c>
+      <c r="E134">
+        <v>5578</v>
+      </c>
+      <c r="F134">
+        <v>44</v>
+      </c>
+      <c r="G134">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45119</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>15</v>
+      </c>
+      <c r="C135">
+        <v>235</v>
+      </c>
+      <c r="D135">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45120</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>11</v>
+      </c>
+      <c r="C136">
+        <v>212</v>
+      </c>
+      <c r="D136">
+        <v>32</v>
+      </c>
+      <c r="E136">
+        <v>5637</v>
+      </c>
+      <c r="F136">
+        <v>98</v>
+      </c>
+      <c r="G136">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45121</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>146</v>
+      </c>
+      <c r="D137">
+        <v>26</v>
+      </c>
+      <c r="E137">
+        <v>5691</v>
+      </c>
+      <c r="F137">
+        <v>74</v>
+      </c>
+      <c r="G137">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45122</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>157</v>
+      </c>
+      <c r="D138">
+        <v>22</v>
+      </c>
+      <c r="E138">
+        <v>5685</v>
+      </c>
+      <c r="F138">
+        <v>55</v>
+      </c>
+      <c r="G138">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45123</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>141</v>
+      </c>
+      <c r="D139">
+        <v>20</v>
+      </c>
+      <c r="E139">
+        <v>5673</v>
+      </c>
+      <c r="F139">
+        <v>75</v>
+      </c>
+      <c r="G139">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45124</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>132</v>
+      </c>
+      <c r="D140">
+        <v>20</v>
+      </c>
+      <c r="E140">
+        <v>5701</v>
+      </c>
+      <c r="F140">
+        <v>42</v>
+      </c>
+      <c r="G140">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45125</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>6</v>
+      </c>
+      <c r="C141">
+        <v>126</v>
+      </c>
+      <c r="D141">
+        <v>20</v>
+      </c>
+      <c r="E141">
+        <v>5697</v>
+      </c>
+      <c r="F141">
+        <v>44</v>
+      </c>
+      <c r="G141">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45126</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>7</v>
+      </c>
+      <c r="C142">
+        <v>130</v>
+      </c>
+      <c r="D142">
+        <v>20</v>
+      </c>
+      <c r="E142">
+        <v>5721</v>
+      </c>
+      <c r="F142">
+        <v>43</v>
+      </c>
+      <c r="G142">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45127</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>10</v>
+      </c>
+      <c r="C143">
+        <v>178</v>
+      </c>
+      <c r="D143">
+        <v>28</v>
+      </c>
+      <c r="E143">
+        <v>5719</v>
+      </c>
+      <c r="F143">
+        <v>55</v>
+      </c>
+      <c r="G143">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45128</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>138</v>
+      </c>
+      <c r="D144">
+        <v>21</v>
+      </c>
+      <c r="E144">
+        <v>5710</v>
+      </c>
+      <c r="F144">
+        <v>62</v>
+      </c>
+      <c r="G144">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45129</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>137</v>
+      </c>
+      <c r="D145">
+        <v>20</v>
+      </c>
+      <c r="E145">
+        <v>5741</v>
+      </c>
+      <c r="F145">
+        <v>49</v>
+      </c>
+      <c r="G145">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45130</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>72</v>
+      </c>
+      <c r="D146">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>5710</v>
+      </c>
+      <c r="F146">
+        <v>24</v>
+      </c>
+      <c r="G146">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45131</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>21</v>
+      </c>
+      <c r="C147">
+        <v>145</v>
+      </c>
+      <c r="D147">
+        <v>20</v>
+      </c>
+      <c r="E147">
+        <v>5714</v>
+      </c>
+      <c r="F147">
+        <v>47</v>
+      </c>
+      <c r="G147">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45132</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>116</v>
+      </c>
+      <c r="D148">
+        <v>22</v>
+      </c>
+      <c r="E148">
+        <v>5703</v>
+      </c>
+      <c r="F148">
+        <v>40</v>
+      </c>
+      <c r="G148">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45133</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>223</v>
+      </c>
+      <c r="D149">
+        <v>33</v>
+      </c>
+      <c r="E149">
+        <v>5724</v>
+      </c>
+      <c r="F149">
+        <v>36</v>
+      </c>
+      <c r="G149">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>45134</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>11</v>
+      </c>
+      <c r="C150">
+        <v>145</v>
+      </c>
+      <c r="D150">
+        <v>23</v>
+      </c>
+      <c r="E150">
+        <v>5721</v>
+      </c>
+      <c r="F150">
+        <v>69</v>
+      </c>
+      <c r="G150">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>45135</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>246</v>
+      </c>
+      <c r="D151">
+        <v>35</v>
+      </c>
+      <c r="E151">
+        <v>5678</v>
+      </c>
+      <c r="F151">
+        <v>58</v>
+      </c>
+      <c r="G151">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>45136</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>168</v>
+      </c>
+      <c r="D152">
+        <v>24</v>
+      </c>
+      <c r="E152">
+        <v>5732</v>
+      </c>
+      <c r="F152">
+        <v>70</v>
+      </c>
+      <c r="G152">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>45137</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>141</v>
+      </c>
+      <c r="D153">
+        <v>20</v>
+      </c>
+      <c r="E153">
+        <v>5715</v>
+      </c>
+      <c r="F153">
+        <v>71</v>
+      </c>
+      <c r="G153">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>45138</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>12</v>
+      </c>
+      <c r="C154">
+        <v>142</v>
+      </c>
+      <c r="D154">
+        <v>18</v>
+      </c>
+      <c r="E154">
+        <v>5707</v>
+      </c>
+      <c r="F154">
+        <v>57</v>
+      </c>
+      <c r="G154">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>45139</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>174</v>
+      </c>
+      <c r="D155">
+        <v>29</v>
+      </c>
+      <c r="E155">
+        <v>5767</v>
+      </c>
+      <c r="F155">
+        <v>68</v>
+      </c>
+      <c r="G155">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>45140</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>150</v>
+      </c>
+      <c r="D156">
+        <v>20</v>
+      </c>
+      <c r="E156">
+        <v>5772</v>
+      </c>
+      <c r="F156">
+        <v>76</v>
+      </c>
+      <c r="G156">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45141</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>162</v>
+      </c>
+      <c r="D157">
+        <v>22</v>
+      </c>
+      <c r="E157">
+        <v>5746</v>
+      </c>
+      <c r="F157">
+        <v>72</v>
+      </c>
+      <c r="G157">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>45142</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>8</v>
+      </c>
+      <c r="C158">
+        <v>134</v>
+      </c>
+      <c r="D158">
+        <v>20</v>
+      </c>
+      <c r="E158">
+        <v>5774</v>
+      </c>
+      <c r="F158">
+        <v>48</v>
+      </c>
+      <c r="G158">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>45143</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>141</v>
+      </c>
+      <c r="D159">
+        <v>21</v>
+      </c>
+      <c r="E159">
+        <v>5781</v>
+      </c>
+      <c r="F159">
+        <v>48</v>
+      </c>
+      <c r="G159">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>45144</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>137</v>
+      </c>
+      <c r="D160">
+        <v>20</v>
+      </c>
+      <c r="E160">
+        <v>5781</v>
+      </c>
+      <c r="F160">
+        <v>48</v>
+      </c>
+      <c r="G160">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>45145</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>7</v>
+      </c>
+      <c r="C161">
+        <v>127</v>
+      </c>
+      <c r="D161">
+        <v>15</v>
+      </c>
+      <c r="E161">
+        <v>5802</v>
+      </c>
+      <c r="F161">
+        <v>49</v>
+      </c>
+      <c r="G161">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>45146</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>110</v>
+      </c>
+      <c r="D162">
+        <v>16</v>
+      </c>
+      <c r="E162">
+        <v>5787</v>
+      </c>
+      <c r="F162">
+        <v>35</v>
+      </c>
+      <c r="G162">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>45147</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>117</v>
+      </c>
+      <c r="D163">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>45148</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>24</v>
+      </c>
+      <c r="C164">
+        <v>180</v>
+      </c>
+      <c r="D164">
+        <v>38</v>
+      </c>
+      <c r="M164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>45149</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>46</v>
+      </c>
+      <c r="C165">
+        <v>327</v>
+      </c>
+      <c r="D165">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>45150</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>11</v>
+      </c>
+      <c r="C166">
+        <v>216</v>
+      </c>
+      <c r="D166">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>45151</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>35</v>
+      </c>
+      <c r="C167">
+        <v>274</v>
+      </c>
+      <c r="D167">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>45152</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>190</v>
+      </c>
+      <c r="D168">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>45153</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>29</v>
+      </c>
+      <c r="C169">
+        <v>321</v>
+      </c>
+      <c r="D169">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>45154</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>18</v>
+      </c>
+      <c r="C170">
+        <v>314</v>
+      </c>
+      <c r="D170">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>45155</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>37</v>
+      </c>
+      <c r="C171">
+        <v>293</v>
+      </c>
+      <c r="D171">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>45156</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>10</v>
+      </c>
+      <c r="C172">
+        <v>270</v>
+      </c>
+      <c r="D172">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>45157</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>9</v>
+      </c>
+      <c r="C173">
+        <v>262</v>
+      </c>
+      <c r="D173">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>45158</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>150</v>
+      </c>
+      <c r="D174">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>45159</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>45160</v>
       </c>
@@ -52181,4 +52941,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F65027E-6AA4-4D5D-9DC3-1148B5AF6970}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>